--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -575,7 +575,7 @@
         <v>44876</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>45266</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45548</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45205</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>46013.60013888889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45841</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45835</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>45854</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45800</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>45827.37719907407</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45936</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>46008.77298611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>46050.66849537037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45489.84730324074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44992</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>45567.87177083334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44977</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>45896.60490740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45835</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45747.40665509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44869</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45901.55515046296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45156</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45861.7066087963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45358</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45637.36484953704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44602</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45764.42738425926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44425</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>45127</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45690.8478587963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44829</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45922.39347222223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45835.33481481481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45931.46008101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>45294.49954861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45849.82383101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>45849.82798611111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45695</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45873</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>45754.54314814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>45614.83726851852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>46027</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>46050</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>46056.52956018518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44992.62401620371</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45091</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45251</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>45609</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45502.62886574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>44390.91288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>44536</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>44431.39752314815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>44782.60024305555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44249</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44834</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44802</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44671.336875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44872.57618055555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44319</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44512.37575231482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44397</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44869</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44509.58097222223</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44399</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44305</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44670</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44394</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44877</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44539</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44323</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44529</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44420</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44323</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44323</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44536.40434027778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44820.56857638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44824</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44834</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44693</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>44393.55643518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44851</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44865.64244212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>44735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44792.38814814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44690.50725694445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44684.58278935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44432.60814814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44312</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44409</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44613.40672453704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44777.37854166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>44862.36287037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>44477</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>44797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44533</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44374</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>44438</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44761.59276620371</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45420.36664351852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>44846</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45561.42170138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>45397.2624537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>45103</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>45098</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>45219</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>45362.66299768518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44543.59780092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>45110</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45637.34184027778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>45425.52559027778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>44993</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>45555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>45518.44481481481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44533</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>45266</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>45373.42898148148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>45510.55171296297</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>45161</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>45446</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>45509.34517361111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>45257</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>45208.58997685185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45132</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45455.6758449074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44929</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44336</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45044.42940972222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>45637.58795138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45127.84586805556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45743.43929398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>45261</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>45476.49346064815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>45264</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45523.59578703704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45523.59895833334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45302</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45621.61266203703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44978</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45015.6196412037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45608.35609953704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>44546</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>44546.46354166666</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>45518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>45037.48765046296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45313</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45296.45545138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45637</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45244</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45309</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>45454.43050925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>45154</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>45630</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>45446</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>45198</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44986</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45515.83091435185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45798.97899305556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45103.61575231481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45568</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45707.30969907407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>45886.83605324074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>45490.34765046297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>45257</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45705.34516203704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45754</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45588.36508101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45376.44569444445</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45219.57456018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45103.61003472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45497.69108796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45497.71550925926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45803.56033564815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45800.34751157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45261</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45800.33868055556</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45114.36729166667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45194.49178240741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45258</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45769</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45254</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>45480.75318287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45397</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>45807.37829861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45645.37893518519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45806</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45260.50008101852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44966</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45183</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45261</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44867</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44731.8799537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45890</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45812.60392361111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>45812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>45890</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45890.63006944444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45890.68304398148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45812.61265046296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45812.36097222222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45813.64618055556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45813.64782407408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45890.45706018519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45813</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45890.42633101852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45812.60864583333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45559.48637731482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45771.32445601852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45732.62988425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45817.57710648148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45646</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45110</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45001</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45015</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45896.35100694445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45896.36368055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45901.4815625</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45232.71193287037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45898.59570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45898.60199074074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45898</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45899.36747685185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45376.45800925926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45121</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45818</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45819.413125</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45900.92826388889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45330</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45027</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45818</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45820</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45793</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45432.32896990741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45235.90439814814</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45821.36862268519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45903</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>45695.30824074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>45259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>45905.3753125</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>45151.9096875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45825.35315972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44987</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45821.39326388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45798.96927083333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45825.58077546296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45911.70180555555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45497.71074074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45911.70060185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45911.66873842593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45910.4294212963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>45827.42336805556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>45911.70278935185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>45912</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45459.36460648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45912</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45912.52229166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45251</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45915.6677199074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45912.67685185185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45306</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>45916.71483796297</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45677.38246527778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45916.70982638889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44749</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>45917.56780092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>45918.60555555556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>45520.36055555556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>45706</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>45919.39679398148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45832.38484953704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>45832.45914351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>45832.37989583334</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45001.5000462963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45510.98405092592</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>45832.37885416667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>45922.39989583333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>45921.30490740741</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>45921.85230324074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>45833</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>45624.68607638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45757.49408564815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>45832.37547453704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>45924.65101851852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45832.67648148148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45832.6799537037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>45832.46300925926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45425.52193287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45351.31555555556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45349.7467824074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45925.56306712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45925.70248842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44837.70210648148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>45833</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45061</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>45835</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45574</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45611</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>45835</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>45929.63511574074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>45929.46811342592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>45583.33195601852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>45567.89709490741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45036</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45929.51811342593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45834</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45618.69380787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>45835</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>45553</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45631</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>45838</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44501</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>45559.36677083333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45839.57643518518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>45838.67953703704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>45838</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44351</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45932.60846064815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>45932.60920138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>45749.59765046297</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45734.29193287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44962</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>45840</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44974</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44992</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45303</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>45303</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45934.67564814815</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45630</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45630</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45160</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>45939.37564814815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45203</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45937.50077546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45433.33907407407</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45433.34469907408</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>45937.65601851852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>45705.95238425926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44959</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45342.46857638889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44588</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45937.37949074074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>45104</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45113.54193287037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45938.43855324074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>45938.43589120371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45842</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>45114</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45453</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>45553.35763888889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45303</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45408.55504629629</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45839.3969212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45195</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45085.92146990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45085</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45944.47092592593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45726.41565972222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45946.27984953704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45618.69581018519</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45849</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>45561.51310185185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>45848</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45695</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44993</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45849</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45951.64041666667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>45951</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45258.49056712963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44951.42983796296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44274</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45567</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45861</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>45450.45521990741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>45860</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26172,7 +26172,7 @@
         <v>45707.30268518518</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>45951</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>45863</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45863</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45863.51550925926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45863.72346064815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45751.33447916667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45867</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45695</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45952.49537037037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45869.63885416667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45955.98113425926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45993</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44994</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44978</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45607.30265046296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45334</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45958.6442824074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45959.63711805556</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>44902.59579861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>44918</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45351.31371527778</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45125</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45308</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45877.66282407408</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45958.35487268519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45958.56283564815</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45512.64349537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45961.64158564815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44628.52340277778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45558.45638888889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45961.34895833334</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45960</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45960.83247685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45961.3475462963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>45960.61840277778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>45334</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>45625</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>45016.46484953703</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44837.6369212963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45965.50385416667</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>45964.45040509259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>45964.45671296296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         <v>45964.86651620371</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28896,7 +28896,7 @@
         <v>45692.95231481481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>45964.87122685185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>45965.59965277778</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45317</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45610.50217592593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45966.5916087963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>45966.60414351852</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>45966.62619212963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45966.64165509259</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>45881.8299537037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>45910.35496527778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29523,7 +29523,7 @@
         <v>45002.57731481481</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>45552.43163194445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45966</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29699,7 +29699,7 @@
         <v>45966.61672453704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>45966.65237268519</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>45971.57913194445</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>45490.35402777778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>45428.69438657408</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>44959</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>45418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>45061</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>45523.5974537037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>45706.53827546296</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44998</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30326,7 +30326,7 @@
         <v>44998</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>45882.48440972222</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>45972.63765046297</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>45621.35554398148</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>45478.47863425926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>45975.45777777778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>45624.67864583333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>45884.3706712963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>45975.45502314815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>45975.60164351852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45974.37554398148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45974.64157407408</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45979.61486111111</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>45979.67476851852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45979.62025462963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45978.65903935185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>46020.6441087963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>46021.32299768519</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>46020.63613425926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>46018.42364583333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>45429.34969907408</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>45618.68929398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45554.5734375</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31818,7 +31818,7 @@
         <v>45167.38664351852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>45980.64287037037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         <v>45981</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44974</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>44974</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45981.65211805556</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45675.85865740741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>45749.57331018519</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>45726</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45981.44429398148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>46024.49158564815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45966</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45985.53180555555</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45985.70894675926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45985.70596064815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>45228</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>45656.86009259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>46024.60450231482</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45985.62520833333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>45670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>45982.37767361111</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>45982.60335648148</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>46021.31668981481</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>45638</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45131.64390046296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45112</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>46029.33446759259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>46029.635</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>45987</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>45986.47667824074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>45733.3575</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>45986</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>46029.44658564815</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>46029.44782407407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>45365.50425925926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>46030.92302083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45027.63717592593</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45988.46891203704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33989,7 +33989,7 @@
         <v>45903</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>45988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45257</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>45165</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34252,7 +34252,7 @@
         <v>45610</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>45397.26047453703</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34366,7 +34366,7 @@
         <v>46031.40140046296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34423,7 +34423,7 @@
         <v>45454.57049768518</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>46020</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>46020</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>46035.63878472222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>46020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>46020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>45992.41105324074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45432.33592592592</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>46035.67491898148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>45169.46887731482</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45993.60201388889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45993.66039351852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>46035.84534722222</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>46021</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>46021</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>45727</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>45695</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>46036.67840277778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>46037.67550925926</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>46036.64986111111</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45180</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>46020</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>45995.68694444445</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>46021</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>46021</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35858,7 +35858,7 @@
         <v>45994.44629629629</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>45621</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>46036.27943287037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>45995.31949074074</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45446.54756944445</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45756.57114583333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>45623.87737268519</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36267,7 +36267,7 @@
         <v>45716.62609953704</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36324,7 +36324,7 @@
         <v>45695.36715277778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45113</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45127</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45127</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45160.3479050926</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44974</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>45996.36671296296</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>46035</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>46041.40858796296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>45127.82231481482</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>46035</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>44474.30614583333</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>46038.48278935185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
         <v>45664.43394675926</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>46039.95699074074</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>46041.56834490741</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>46041.5733912037</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>46043.5185300926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>46043.49631944444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>46027</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>46019</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45608.71297453704</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>46042.60645833334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>45667.35712962963</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>46043.50650462963</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>46001.63854166667</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>45198.47399305556</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37868,7 +37868,7 @@
         <v>45625</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>44912</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>46032</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>46043.59221064814</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>45747</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>45068</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>46043.58936342593</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46045.66344907408</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>45742.90363425926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>45638</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38438,7 +38438,7 @@
         <v>46045.64884259259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>44746.50628472222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>46044.36024305555</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>44917</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>46044.35184027778</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>46044.72825231482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>46045.5033912037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>46029.48001157407</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>46029.42424768519</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44909</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45282</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>46002.49790509259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>46044.68775462963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45456.39003472222</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>46048.41368055555</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>46049.37361111111</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>45526.37697916666</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>46048.61916666666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>46006.65743055556</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>46006.66878472222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>46006</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45369.52167824074</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39707,7 +39707,7 @@
         <v>46006</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39764,7 +39764,7 @@
         <v>45369.57342592593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39821,7 +39821,7 @@
         <v>46029</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>46007.73261574074</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>46007.63509259259</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>45988.68571759259</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>46048.66039351852</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>46007.66886574074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>46007.68230324074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>46007.68733796296</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>46007.68412037037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>46049.46439814815</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>46049.57993055556</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45625</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>45027</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40562,7 +40562,7 @@
         <v>45274</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40619,7 +40619,7 @@
         <v>46035</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40676,7 +40676,7 @@
         <v>46035</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40733,7 +40733,7 @@
         <v>46047.57818287037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40790,7 +40790,7 @@
         <v>46049.44449074074</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40847,7 +40847,7 @@
         <v>46051.33568287037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>46008.78130787037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45197.59344907408</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>46051.32188657407</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>46051.32680555555</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45608.41634259259</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>46030</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>45615</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>45523.59265046296</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>46050.67326388889</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>46027</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>46021</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>45741</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>46051.36563657408</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41650,7 +41650,7 @@
         <v>46055.47015046296</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         <v>46010.67482638889</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41764,7 +41764,7 @@
         <v>46052.62013888889</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>46055.4678125</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>45280</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>46055.42487268519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>44441</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>44875</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>45567.86695601852</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>46052.56319444445</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>46010.55725694444</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>46052.47052083333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>46057.56020833334</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>45757.67844907408</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44750.48355324074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44992</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44929</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>45169</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>46013.89994212963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>46035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42810,7 +42810,7 @@
         <v>45275</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>45252</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>46051.49348379629</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>45219</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>46056.30674768519</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45986.55810185185</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>46056.57033564815</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>45609.66488425926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
         <v>45176.62483796296</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>45097</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43385,7 +43385,7 @@
         <v>45623.601875</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43442,7 +43442,7 @@
         <v>46057</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43504,7 +43504,7 @@
         <v>45595</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43561,7 +43561,7 @@
         <v>46042</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>45034</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>44992</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>45624.36729166667</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>46024</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         <v>44846.64418981481</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>44973</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>44909</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45510.38956018518</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>44869.57961805556</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44193,7 +44193,7 @@
         <v>45567.86112268519</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44250,7 +44250,7 @@
         <v>45595</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44307,7 +44307,7 @@
         <v>45630</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44364,7 +44364,7 @@
         <v>45357</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44421,7 +44421,7 @@
         <v>45456.39239583333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44483,7 +44483,7 @@
         <v>45264</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44540,7 +44540,7 @@
         <v>45749.54818287037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44597,7 +44597,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44654,7 +44654,7 @@
         <v>44990</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>44446</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>45152.63138888889</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>45061</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45505.46616898148</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44944,7 +44944,7 @@
         <v>44918</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45001,7 +45001,7 @@
         <v>45509.67334490741</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45058,7 +45058,7 @@
         <v>45096</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45115,7 +45115,7 @@
         <v>45679.40298611111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45172,7 +45172,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45229,7 +45229,7 @@
         <v>45378.57877314815</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45286,7 +45286,7 @@
         <v>45415</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45343,7 +45343,7 @@
         <v>45553.38774305556</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>45152.64842592592</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45462,7 +45462,7 @@
         <v>45050</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45519,7 +45519,7 @@
         <v>45203</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45576,7 +45576,7 @@
         <v>45567.62144675926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45670</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>45303</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         <v>45474.42671296297</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45809,7 +45809,7 @@
         <v>45231.40488425926</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45272</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>44679.3775</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45345.62378472222</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45334</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45323</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46156,7 +46156,7 @@
         <v>45246</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45497.67601851852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45467.6053587963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46332,7 +46332,7 @@
         <v>45559.62550925926</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46389,7 +46389,7 @@
         <v>45756.983125</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>45004.8160300926</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46503,7 +46503,7 @@
         <v>45035</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46560,7 +46560,7 @@
         <v>45201</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46617,7 +46617,7 @@
         <v>45727.62582175926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46679,7 +46679,7 @@
         <v>44987</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46736,7 +46736,7 @@
         <v>45314.76287037037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46793,7 +46793,7 @@
         <v>45314.76622685185</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46850,7 +46850,7 @@
         <v>45544.5200462963</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46907,7 +46907,7 @@
         <v>45744</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46964,7 +46964,7 @@
         <v>45199.35668981481</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47021,7 +47021,7 @@
         <v>45001.49347222222</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47078,7 +47078,7 @@
         <v>44792</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47135,7 +47135,7 @@
         <v>45334</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47197,7 +47197,7 @@
         <v>45607.54511574074</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>44714.50961805556</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45303</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47378,7 +47378,7 @@
         <v>45553.6516550926</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44785.68597222222</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47497,7 +47497,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47554,7 +47554,7 @@
         <v>45509.33908564815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>45093</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47668,7 +47668,7 @@
         <v>45167</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45169</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47782,7 +47782,7 @@
         <v>45630</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47839,7 +47839,7 @@
         <v>44909</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47896,7 +47896,7 @@
         <v>45112</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47953,7 +47953,7 @@
         <v>45699</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45558.45815972222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45647.42890046296</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45267</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45744.50858796296</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48238,7 +48238,7 @@
         <v>45261</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48295,7 +48295,7 @@
         <v>45261</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>44967.43953703704</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45035</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>44574</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45244.37094907407</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48585,7 +48585,7 @@
         <v>45567.50030092592</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48642,7 +48642,7 @@
         <v>45630</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>45261.03266203704</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48756,7 +48756,7 @@
         <v>45732.62201388889</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48813,7 +48813,7 @@
         <v>45733.35498842593</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48875,7 +48875,7 @@
         <v>45733.36079861111</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45474.42474537037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45231.35564814815</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45656.61827546296</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45274</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45049</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45109.71128472222</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49284,7 +49284,7 @@
         <v>45266</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49341,7 +49341,7 @@
         <v>45559.32537037037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49398,7 +49398,7 @@
         <v>45761.55939814815</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>45595</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45298</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>45700.64615740741</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45216.43444444444</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         <v>45005</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49740,7 +49740,7 @@
         <v>45076</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         <v>45757.49976851852</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49854,7 +49854,7 @@
         <v>45420.63901620371</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>44375</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49973,7 +49973,7 @@
         <v>45296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50030,7 +50030,7 @@
         <v>44890.62630787037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45255.44603009259</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45418.55609953704</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50201,7 +50201,7 @@
         <v>45293</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50258,7 +50258,7 @@
         <v>45307</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50315,7 +50315,7 @@
         <v>45131</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>45621</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50429,7 +50429,7 @@
         <v>44643</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50486,7 +50486,7 @@
         <v>44974</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50543,7 +50543,7 @@
         <v>45216.72185185185</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50600,7 +50600,7 @@
         <v>45200</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50657,7 +50657,7 @@
         <v>45621</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50714,7 +50714,7 @@
         <v>45568</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50771,7 +50771,7 @@
         <v>45727</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50828,7 +50828,7 @@
         <v>44714</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50890,7 +50890,7 @@
         <v>45386.38972222222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50947,7 +50947,7 @@
         <v>45260</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51004,7 +51004,7 @@
         <v>45468.3509375</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45447.40143518519</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51123,7 +51123,7 @@
         <v>45266</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51180,7 +51180,7 @@
         <v>45754</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         <v>45754.72883101852</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51294,7 +51294,7 @@
         <v>45267.35582175926</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51351,7 +51351,7 @@
         <v>45553.65361111111</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51413,7 +51413,7 @@
         <v>44991.58001157407</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51470,7 +51470,7 @@
         <v>44991.59049768518</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51527,7 +51527,7 @@
         <v>45202</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45566</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>45428.69106481481</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45406.70356481482</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51755,7 +51755,7 @@
         <v>45777.42769675926</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>45776</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45779.54589120371</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45779.46675925926</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>45170</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45783.3521875</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>45376.46833333333</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52164,7 +52164,7 @@
         <v>45782.55451388889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52221,7 +52221,7 @@
         <v>45646.60748842593</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52278,7 +52278,7 @@
         <v>45785</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52335,7 +52335,7 @@
         <v>45784.50115740741</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52392,7 +52392,7 @@
         <v>45266</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52449,7 +52449,7 @@
         <v>45015</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52506,7 +52506,7 @@
         <v>45350.30831018519</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52563,7 +52563,7 @@
         <v>45537.45143518518</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52620,7 +52620,7 @@
         <v>45787.33037037037</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         <v>45256</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52734,7 +52734,7 @@
         <v>45524.58349537037</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52791,7 +52791,7 @@
         <v>45246</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52848,7 +52848,7 @@
         <v>45790.3728587963</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52905,7 +52905,7 @@
         <v>45596</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52962,7 +52962,7 @@
         <v>45574.6646412037</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53019,7 +53019,7 @@
         <v>45790.78076388889</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53076,7 +53076,7 @@
         <v>45790.90960648148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53133,7 +53133,7 @@
         <v>45793.65900462963</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53190,7 +53190,7 @@
         <v>45793</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53252,7 +53252,7 @@
         <v>45792</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53309,7 +53309,7 @@
         <v>45796</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53366,7 +53366,7 @@
         <v>45796</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53423,7 +53423,7 @@
         <v>44971</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53480,7 +53480,7 @@
         <v>45797.61113425926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53537,7 +53537,7 @@
         <v>45786</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53599,7 +53599,7 @@
         <v>45461.60636574074</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53656,7 +53656,7 @@
         <v>45240</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53713,7 +53713,7 @@
         <v>45797.60731481481</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
